--- a/Results/Notebook 2 Example 1/Scores/problem_2_instance1_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_2_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01490622461499558</v>
+        <v>0.01838528797222151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2066676027710081</v>
+        <v>0.1943756155675498</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06279535326296246</v>
+        <v>0.07300731111934443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2558926590201958</v>
+        <v>0.240242512553099</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9039852367373665</v>
+        <v>0.8938796618671565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4373172081297035</v>
+        <v>0.5191793218823673</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9967774214424563</v>
+        <v>0.9942781507963687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3749390306634782</v>
+        <v>0.4637003269448957</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9888869259421236</v>
+        <v>0.9914961385628619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7886715702832929</v>
+        <v>0.7904240810945034</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9736443324371932</v>
+        <v>0.9674376379532397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2901838397113652</v>
+        <v>0.3622432403944318</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001945793628692627</v>
+        <v>0.006631307601928711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1885915398597717</v>
+        <v>0.1713283348083496</v>
       </c>
     </row>
   </sheetData>
